--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>5953</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,93 +637,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>905</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,83 +893,83 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,93 +1331,93 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,34 +1661,34 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1698,14 +1698,14 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>2355</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1922,24 +1922,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1954,88 +1954,88 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,93 +2109,93 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>959</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,93 +2237,93 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-08 19:07</t>
+          <t>09-12 10:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1226024997.html</t>
+          <t>/news,002840,1226580816.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
+          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-08 19:01</t>
+          <t>09-08 19:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1226023892.html</t>
+          <t>/news,002840,1226024997.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>猪肉股震荡走低 华统股份领跌</t>
+          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-08 10:52</t>
+          <t>09-08 19:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1225800753.html</t>
+          <t>/news,002840,1226023892.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
+          <t>猪肉股震荡走低 华统股份领跌</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,115 +2493,115 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-05 08:12</t>
+          <t>09-08 10:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1224418019.html</t>
+          <t>/news,002840,1225800753.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-02 07:08</t>
+          <t>09-05 08:12</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1223885224.html</t>
+          <t>/news,002840,1224418019.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级</t>
+          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>08-30 10:48</t>
+          <t>09-02 07:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1222649773.html</t>
+          <t>/news,002840,1223885224.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-30 10:37</t>
+          <t>08-30 10:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1222636223.html</t>
+          <t>/news,002840,1222649773.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-29 15:48</t>
+          <t>08-30 10:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1222387824.html</t>
+          <t>/news,002840,1222636223.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
+          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-28 19:11</t>
+          <t>08-29 15:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1222272319.html</t>
+          <t>/news,002840,1222387824.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华统股份：2022年半年度净利润约-5908万元</t>
+          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>08-28 19:11</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1222074190.html</t>
+          <t>/news,002840,1222272319.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>注意！华统股份将于9月13日召开股东大会</t>
+          <t>华统股份：2022年半年度净利润约-5908万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2722,24 +2722,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1222074127.html</t>
+          <t>/news,002840,1222074190.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
+          <t>注意！华统股份将于9月13日召开股东大会</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,115 +2749,115 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-28 15:47</t>
+          <t>08-28 16:22</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1222034000.html</t>
+          <t>/news,002840,1222074127.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
+          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-28 15:41</t>
+          <t>08-28 15:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1222032917.html</t>
+          <t>/news,002840,1222034000.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚31万元</t>
+          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-27 01:45</t>
+          <t>08-28 15:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1221926175.html</t>
+          <t>/news,002840,1222032917.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>867</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.49元，股价连续两日创近一年新高</t>
+          <t>华统股份控股子公司环境违法被罚31万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-25 15:53</t>
+          <t>08-27 01:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1221337551.html</t>
+          <t>/news,002840,1221926175.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
+          <t>华统股份盘中最高24.49元，股价连续两日创近一年新高</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,24 +2877,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-24 15:47</t>
+          <t>08-25 15:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1220850334.html</t>
+          <t>/news,002840,1221337551.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-19 15:47</t>
+          <t>08-24 15:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1219320123.html</t>
+          <t>/news,002840,1220850334.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>猪肉板块持续拉升</t>
+          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-16 11:25</t>
+          <t>08-19 15:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1217707226.html</t>
+          <t>/news,002840,1219320123.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份：7月生猪销售收入1.84亿元 环比降14.21%</t>
+          <t>猪肉板块持续拉升</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-12 18:17</t>
+          <t>08-16 11:25</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1216898531.html</t>
+          <t>/news,002840,1217707226.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份：7月商品猪销售均价22.82元/公斤 环比上升30.62%</t>
+          <t>华统股份：7月生猪销售收入1.84亿元 环比降14.21%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-12 18:11</t>
+          <t>08-12 18:17</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1216895509.html</t>
+          <t>/news,002840,1216898531.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>623</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,61 +573,61 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5953</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,61 +669,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>914</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,24 +861,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,93 +1331,93 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,83 +1437,83 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2355</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>2355</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1986,56 +1986,56 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>961</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-08 19:07</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1226024997.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-08 19:01</t>
+          <t>09-12 10:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1226023892.html</t>
+          <t>/news,002840,1226580816.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>猪肉股震荡走低 华统股份领跌</t>
+          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-08 10:52</t>
+          <t>09-08 19:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1225800753.html</t>
+          <t>/news,002840,1226024997.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
+          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-05 08:12</t>
+          <t>09-08 19:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1224418019.html</t>
+          <t>/news,002840,1226023892.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>猪肉股震荡走低 华统股份领跌</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-02 07:08</t>
+          <t>09-08 10:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1223885224.html</t>
+          <t>/news,002840,1225800753.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级</t>
+          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>08-30 10:48</t>
+          <t>09-05 08:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1222649773.html</t>
+          <t>/news,002840,1224418019.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>08-30 10:37</t>
+          <t>09-02 07:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1222636223.html</t>
+          <t>/news,002840,1223885224.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
+          <t>国信证券给予华统股份买入评级</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-29 15:48</t>
+          <t>08-30 10:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1222387824.html</t>
+          <t>/news,002840,1222649773.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-28 19:11</t>
+          <t>08-30 10:37</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1222272319.html</t>
+          <t>/news,002840,1222636223.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华统股份：2022年半年度净利润约-5908万元</t>
+          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>08-29 15:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1222074190.html</t>
+          <t>/news,002840,1222387824.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>注意！华统股份将于9月13日召开股东大会</t>
+          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>08-28 19:11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1222074127.html</t>
+          <t>/news,002840,1222272319.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
+          <t>华统股份：2022年半年度净利润约-5908万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-28 15:47</t>
+          <t>08-28 16:22</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1222034000.html</t>
+          <t>/news,002840,1222074190.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
+          <t>注意！华统股份将于9月13日召开股东大会</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-28 15:41</t>
+          <t>08-28 16:22</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1222032917.html</t>
+          <t>/news,002840,1222074127.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚31万元</t>
+          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-27 01:45</t>
+          <t>08-28 15:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1221926175.html</t>
+          <t>/news,002840,1222034000.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.49元，股价连续两日创近一年新高</t>
+          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-25 15:53</t>
+          <t>08-28 15:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1221337551.html</t>
+          <t>/news,002840,1222032917.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>867</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
+          <t>华统股份控股子公司环境违法被罚31万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-24 15:47</t>
+          <t>08-27 01:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1220850334.html</t>
+          <t>/news,002840,1221926175.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
+          <t>华统股份盘中最高24.49元，股价连续两日创近一年新高</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-19 15:47</t>
+          <t>08-25 15:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1219320123.html</t>
+          <t>/news,002840,1221337551.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>猪肉板块持续拉升</t>
+          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-16 11:25</t>
+          <t>08-24 15:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1217707226.html</t>
+          <t>/news,002840,1220850334.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份：7月生猪销售收入1.84亿元 环比降14.21%</t>
+          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-12 18:17</t>
+          <t>08-19 15:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1216898531.html</t>
+          <t>/news,002840,1219320123.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>5990</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>919</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,71 +1587,71 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2355</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>962</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-08 19:07</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1226024997.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-08 19:01</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1226023892.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1427</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>猪肉股震荡走低 华统股份领跌</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-08 10:52</t>
+          <t>09-12 10:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1225800753.html</t>
+          <t>/news,002840,1226580816.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
+          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-05 08:12</t>
+          <t>09-08 19:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1224418019.html</t>
+          <t>/news,002840,1226024997.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-02 07:08</t>
+          <t>09-08 19:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1223885224.html</t>
+          <t>/news,002840,1226023892.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级</t>
+          <t>猪肉股震荡走低 华统股份领跌</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>08-30 10:48</t>
+          <t>09-08 10:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1222649773.html</t>
+          <t>/news,002840,1225800753.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,71 +2675,71 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>08-30 10:37</t>
+          <t>09-05 08:12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1222636223.html</t>
+          <t>/news,002840,1224418019.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
+          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>08-29 15:48</t>
+          <t>09-02 07:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1222387824.html</t>
+          <t>/news,002840,1223885224.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
+          <t>国信证券给予华统股份买入评级</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-28 19:11</t>
+          <t>08-30 10:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1222272319.html</t>
+          <t>/news,002840,1222649773.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份：2022年半年度净利润约-5908万元</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>08-30 10:37</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1222074190.html</t>
+          <t>/news,002840,1222636223.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>注意！华统股份将于9月13日召开股东大会</t>
+          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>08-29 15:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1222074127.html</t>
+          <t>/news,002840,1222387824.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
+          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-28 15:47</t>
+          <t>08-28 19:11</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1222034000.html</t>
+          <t>/news,002840,1222272319.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
+          <t>华统股份：2022年半年度净利润约-5908万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-28 15:41</t>
+          <t>08-28 16:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1222032917.html</t>
+          <t>/news,002840,1222074190.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚31万元</t>
+          <t>注意！华统股份将于9月13日召开股东大会</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-27 01:45</t>
+          <t>08-28 16:22</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1221926175.html</t>
+          <t>/news,002840,1222074127.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,86 +2931,86 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.49元，股价连续两日创近一年新高</t>
+          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-25 15:53</t>
+          <t>08-28 15:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1221337551.html</t>
+          <t>/news,002840,1222034000.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
+          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-24 15:47</t>
+          <t>08-28 15:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1220850334.html</t>
+          <t>/news,002840,1222032917.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>867</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份盘中最高23.98元，股价创近一年新高</t>
+          <t>华统股份控股子公司环境违法被罚31万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-19 15:47</t>
+          <t>08-27 01:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1219320123.html</t>
+          <t>/news,002840,1221926175.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>918</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,71 +691,71 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5990</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,93 +829,93 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>928</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,83 +1085,83 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,93 +1523,93 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>778</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,34 +1853,34 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1890,14 +1890,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2114,24 +2114,24 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2146,88 +2146,88 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>962</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-08 19:07</t>
+          <t>09-12 10:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1226024997.html</t>
+          <t>/news,002840,1226580816.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
+          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-08 19:01</t>
+          <t>09-08 19:07</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1226023892.html</t>
+          <t>/news,002840,1226024997.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>猪肉股震荡走低 华统股份领跌</t>
+          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-08 10:52</t>
+          <t>09-08 19:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1225800753.html</t>
+          <t>/news,002840,1226023892.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
+          <t>猪肉股震荡走低 华统股份领跌</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,115 +2685,115 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-05 08:12</t>
+          <t>09-08 10:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1224418019.html</t>
+          <t>/news,002840,1225800753.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-02 07:08</t>
+          <t>09-05 08:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1223885224.html</t>
+          <t>/news,002840,1224418019.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级</t>
+          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>08-30 10:48</t>
+          <t>09-02 07:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1222649773.html</t>
+          <t>/news,002840,1223885224.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-30 10:37</t>
+          <t>08-30 10:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1222636223.html</t>
+          <t>/news,002840,1222649773.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-29 15:48</t>
+          <t>08-30 10:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1222387824.html</t>
+          <t>/news,002840,1222636223.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
+          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>股友377Rx87309</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-28 19:11</t>
+          <t>08-29 15:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1222272319.html</t>
+          <t>/news,002840,1222387824.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份：2022年半年度净利润约-5908万元</t>
+          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>08-28 19:11</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1222074190.html</t>
+          <t>/news,002840,1222272319.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>注意！华统股份将于9月13日召开股东大会</t>
+          <t>华统股份：2022年半年度净利润约-5908万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2914,24 +2914,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1222074127.html</t>
+          <t>/news,002840,1222074190.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
+          <t>注意！华统股份将于9月13日召开股东大会</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-28 15:47</t>
+          <t>08-28 16:22</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1222034000.html</t>
+          <t>/news,002840,1222074127.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
+          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-28 15:41</t>
+          <t>08-28 15:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1222032917.html</t>
+          <t>/news,002840,1222034000.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚31万元</t>
+          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-27 01:45</t>
+          <t>08-28 15:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1221926175.html</t>
+          <t>/news,002840,1222032917.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,61 +477,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,61 +989,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,83 +1117,83 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>967</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,44 +1501,44 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>2369</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>977</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-08 19:07</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1226024997.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-08 19:01</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1226023892.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>猪肉股震荡走低 华统股份领跌</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-08 10:52</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1225800753.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,147 +2717,147 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-05 08:12</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1224418019.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>851</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>方正证券首次给予华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-02 07:08</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1223885224.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>08-30 10:48</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1222649773.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>08-30 10:37</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1222636223.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份盘中最高24.63元，股价创近一年新高</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>股友377Rx87309</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>08-29 15:48</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1222387824.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解中报】华统股份：2022上半年归母净利润同比盈转亏，亏损合计约5908万元</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08-28 19:11</t>
+          <t>09-12 10:07</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1222272319.html</t>
+          <t>/news,002840,1226580816.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份：2022年半年度净利润约-5908万元</t>
+          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>09-08 19:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1222074190.html</t>
+          <t>/news,002840,1226024997.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>注意！华统股份将于9月13日召开股东大会</t>
+          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-28 16:22</t>
+          <t>09-08 19:01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1222074127.html</t>
+          <t>/news,002840,1226023892.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份股东户数增加85户，户均持股76.47万元</t>
+          <t>猪肉股震荡走低 华统股份领跌</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-28 15:47</t>
+          <t>09-08 10:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1222034000.html</t>
+          <t>/news,002840,1225800753.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份：2022上半年净利润-5907.94万，上年同期盈利1.08亿元</t>
+          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-28 15:41</t>
+          <t>09-05 08:12</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1222032917.html</t>
+          <t>/news,002840,1224418019.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1637</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,71 +1011,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>6080</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>971</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,83 +1405,83 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,93 +1843,93 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,34 +2173,34 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2210,14 +2210,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2369</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>2369</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2434,24 +2434,24 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2466,88 +2466,88 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,93 +2621,93 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>710</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-08 19:07</t>
+          <t>09-12 10:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1226024997.html</t>
+          <t>/news,002840,1226580816.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
+          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-08 19:01</t>
+          <t>09-08 19:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1226023892.html</t>
+          <t>/news,002840,1226024997.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>猪肉股震荡走低 华统股份领跌</t>
+          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-08 10:52</t>
+          <t>09-08 19:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1225800753.html</t>
+          <t>/news,002840,1226023892.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级：生猪产能快速放量 独享区位优势头均盈利可期</t>
+          <t>猪肉股震荡走低 华统股份领跌</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-05 08:12</t>
+          <t>09-08 10:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1224418019.html</t>
+          <t>/news,002840,1225800753.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6080</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>6088</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>1357</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>971</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1156</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,71 +2035,71 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>1745</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2369</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>2369</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入3.21亿元 同比增长2966.74%</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-08 19:07</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1226024997.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份：8月生猪销售收入约3.21亿元 同比变动2966.74%</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-08 19:01</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1226023892.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>猪肉股震荡走低 华统股份领跌</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-08 10:52</t>
+          <t>09-12 10:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1225800753.html</t>
+          <t>/news,002840,1226580816.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
+          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1256100057.html</t>
+          <t>/news,002840,1256765993.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 14:51</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1255837964.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>2486</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 14:19</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1255803834.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,71 +627,71 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3101</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,71 +851,71 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6088</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>975</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1156</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,83 +1533,83 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,93 +1971,93 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,34 +2301,34 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2338,14 +2338,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2369</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>2370</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2562,24 +2562,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2594,88 +2594,88 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>980</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,93 +2877,93 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>853</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>华统股份5日连涨 机构资金净买入3765万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234514497.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>09-30 12:09</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1232698804.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-12 10:07</t>
+          <t>09-12 10:20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1226580816.html</t>
+          <t>/news,002840,1226582662.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
+          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1256765993.html</t>
+          <t>/news,002840,1257558049.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
+          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1256100057.html</t>
+          <t>/news,002840,1257554651.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
+          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 14:51</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1255837964.html</t>
+          <t>/news,002840,1257406143.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
+          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 14:19</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1255803834.html</t>
+          <t>/news,002840,1256765993.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>2537</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>6100</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>976</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,44 +1757,44 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,71 +2163,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1746</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>2371</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1238457710.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>猪肉股震荡走弱 多股跌超4%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-24 13:18</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1238157603.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>980</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,93 +2877,93 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-13 16:17</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1234925898.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-13 16:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1234922119.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份5日连涨 机构资金净买入3765万元</t>
+          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 16:32</t>
+          <t>10-12 17:14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1234514497.html</t>
+          <t>/news,002840,1234522593.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份：将在公司养殖场开发光伏发电项目 目前已有部分猪场完成安装</t>
+          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-30 12:09</t>
+          <t>10-12 16:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1232698804.html</t>
+          <t>/news,002840,1234518973.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>856</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级：养殖出栏稳步兑现 生猪销价表现突出</t>
+          <t>华统股份(002840)龙虎榜数据(10-12)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-12 10:20</t>
+          <t>10-12 16:34</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1226582662.html</t>
+          <t>/news,002840,1234515041.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
+          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-12 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1257558049.html</t>
+          <t>/news,002840,1258214367.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
+          <t>华统股份：11月生猪销售收入2.06亿元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-11 20:16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1257554651.html</t>
+          <t>/news,002840,1258145946.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
+          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-11 18:16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1257406143.html</t>
+          <t>/news,002840,1258118459.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
+          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-11 17:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1256765993.html</t>
+          <t>/news,002840,1258110205.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
+          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1256100057.html</t>
+          <t>/news,002840,1258090641.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
+          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 14:51</t>
+          <t>12-09 16:15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1255837964.html</t>
+          <t>/news,002840,1257784220.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
+          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 14:19</t>
+          <t>12-09 14:27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1255803834.html</t>
+          <t>/news,002840,1257714940.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1257558049.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1257554651.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1257406143.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1256765993.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2148</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,61 +1245,61 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>6106</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,93 +1629,93 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>977</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,61 +1875,61 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,93 +2387,93 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2371</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>848</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份：纳入融资融券标的首日，融资买入1091.9万元（10-24）</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1238457710.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>猪肉股震荡走弱 多股跌超4%</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 13:18</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1238157603.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>2371</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级 9月销售简报点评：养殖量价表现优秀 成长逻辑逐步验证</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 16:17</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1234925898.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 16:01</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1234922119.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1187</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份：9月生猪销售收入3.04亿元，同比增4286.82%</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 17:14</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1234522593.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>交易异动！华统股份：近3个交易日上涨21.54% 无未披露的重大信息</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 16:53</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1234518973.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-12)</t>
+          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 16:34</t>
+          <t>10-25 10:25</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1234515041.html</t>
+          <t>/news,002840,1238579357.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
+          <t>华统股份：连续3日融资净买入累计1791.67万元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 08:55</t>
+          <t>12-13 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1258214367.html</t>
+          <t>/news,002840,1258768843.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元</t>
+          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 20:16</t>
+          <t>12-12 08:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1258145946.html</t>
+          <t>/news,002840,1258214367.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1360</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
+          <t>华统股份：11月生猪销售收入2.06亿元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 18:16</t>
+          <t>12-11 20:16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1258118459.html</t>
+          <t>/news,002840,1258145946.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
+          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,93 +573,93 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 17:16</t>
+          <t>12-11 18:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1258110205.html</t>
+          <t>/news,002840,1258118459.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
+          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-11 17:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1258090641.html</t>
+          <t>/news,002840,1258110205.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
+          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 16:15</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1257784220.html</t>
+          <t>/news,002840,1258090641.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
+          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 14:27</t>
+          <t>12-09 16:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1257714940.html</t>
+          <t>/news,002840,1257784220.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
+          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-09 14:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1257558049.html</t>
+          <t>/news,002840,1257714940.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
+          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -738,24 +738,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1257554651.html</t>
+          <t>/news,002840,1257558049.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
+          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1257406143.html</t>
+          <t>/news,002840,1257554651.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
+          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1256765993.html</t>
+          <t>/news,002840,1257406143.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
+          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1256100057.html</t>
+          <t>/news,002840,1256765993.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 14:51</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1255837964.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 14:19</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1255803834.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,71 +979,71 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3148</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,71 +1203,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>2167</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,71 +1491,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6106</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>6107</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,93 +1629,93 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>985</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,83 +1885,83 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,93 +2323,93 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,34 +2653,34 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2690,14 +2690,14 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>849</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2371</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2914,24 +2914,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2946,71 +2946,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>注意！华统股份将于11月10日召开股东大会</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238888347.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>养鸡、养猪概念股震荡走弱 华统股份连续2日跌停</t>
+          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 10:25</t>
+          <t>10-25 20:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1238579357.html</t>
+          <t>/news,002840,1238882148.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计1791.67万元（12-12）</t>
+          <t>华统股份：融资净偿还3843.16万元，融资余额1.56亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:49</t>
+          <t>12-14 09:08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1258768843.html</t>
+          <t>/news,002840,1259358830.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
+          <t>华统股份涨停</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-12 08:55</t>
+          <t>12-13 15:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1258214367.html</t>
+          <t>/news,002840,1259099521.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元</t>
+          <t>华统股份：连续3日融资净买入累计1791.67万元（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 20:16</t>
+          <t>12-13 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1258145946.html</t>
+          <t>/news,002840,1258768843.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
+          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 18:16</t>
+          <t>12-12 08:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1258118459.html</t>
+          <t>/news,002840,1258214367.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
+          <t>华统股份：11月生猪销售收入2.06亿元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 17:16</t>
+          <t>12-11 20:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1258110205.html</t>
+          <t>/news,002840,1258145946.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
+          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-11 18:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1258090641.html</t>
+          <t>/news,002840,1258118459.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
+          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,61 +669,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 16:15</t>
+          <t>12-11 17:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1257784220.html</t>
+          <t>/news,002840,1258110205.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
+          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 14:27</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1257714940.html</t>
+          <t>/news,002840,1258090641.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
+          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-09 16:15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1257558049.html</t>
+          <t>/news,002840,1257784220.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
+          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-09 14:27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1257554651.html</t>
+          <t>/news,002840,1257714940.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
+          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1257406143.html</t>
+          <t>/news,002840,1257558049.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
+          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1256765993.html</t>
+          <t>/news,002840,1257554651.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
+          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1256100057.html</t>
+          <t>/news,002840,1257406143.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
+          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 14:51</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1255837964.html</t>
+          <t>/news,002840,1256765993.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 14:19</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1255803834.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>2560</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>827</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3151</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2167</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6107</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>6116</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1384</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,24 +1853,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,93 +2323,93 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,83 +2429,83 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>817</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-26 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1238979247.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-26 05:38</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1238956323.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-25 22:38</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1238919659.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1238901436.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1238891213.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>注意！华统股份将于11月10日召开股东大会</t>
+          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2978,39 +2978,39 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1238888347.html</t>
+          <t>/news,002840,1238885618.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润同比增长909.2%</t>
+          <t>华统股份：2022年前三季度净利润约4537万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 20:30</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1238882148.html</t>
+          <t>/news,002840,1238888203.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还3843.16万元，融资余额1.56亿元（12-13）</t>
+          <t>华统股份：连续3日融资净买入累计2982.77万元（12-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 09:08</t>
+          <t>12-19 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1259358830.html</t>
+          <t>/news,002840,1261207426.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2720</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份涨停</t>
+          <t>华统股份：拟向董事、副总经理等86人授予840万股限制性股票 授予价格8.53元/股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 15:56</t>
+          <t>12-18 17:22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1259099521.html</t>
+          <t>/news,002840,1261106420.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计1791.67万元（12-12）</t>
+          <t>华统股份：拟向3家子公司合计增资5亿元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 08:49</t>
+          <t>12-18 17:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1258768843.html</t>
+          <t>/news,002840,1261105589.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
+          <t>注意！华统股份将于2023年1月3日召开股东大会</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,61 +573,61 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-12 08:55</t>
+          <t>12-18 16:23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1258214367.html</t>
+          <t>/news,002840,1261096922.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元</t>
+          <t>华统股份本周融资净偿还2011.8万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 20:16</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1258145946.html</t>
+          <t>/news,002840,1261087158.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
+          <t>华统股份：融资净买入264.24万元，融资余额1.7亿元（12-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 18:16</t>
+          <t>12-16 08:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1258118459.html</t>
+          <t>/news,002840,1260487946.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
+          <t>华统股份：融资净买入1128.44万元，融资余额1.68亿元（12-14）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 17:16</t>
+          <t>12-15 08:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1258110205.html</t>
+          <t>/news,002840,1259941840.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,39 +691,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
+          <t>华统股份：融资净偿还3843.16万元，融资余额1.56亿元（12-13）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-14 09:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1258090641.html</t>
+          <t>/news,002840,1259358830.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
+          <t>华统股份涨停</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 16:15</t>
+          <t>12-13 15:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1257784220.html</t>
+          <t>/news,002840,1259099521.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
+          <t>华统股份：连续3日融资净买入累计1791.67万元（12-12）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 14:27</t>
+          <t>12-13 08:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1257714940.html</t>
+          <t>/news,002840,1258768843.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
+          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-12 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1257558049.html</t>
+          <t>/news,002840,1258214367.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
+          <t>华统股份：11月生猪销售收入2.06亿元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-11 20:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1257554651.html</t>
+          <t>/news,002840,1258145946.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
+          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-11 18:16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1257406143.html</t>
+          <t>/news,002840,1258118459.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
+          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-11 17:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1256765993.html</t>
+          <t>/news,002840,1258110205.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
+          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1256100057.html</t>
+          <t>/news,002840,1258090641.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
+          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 14:51</t>
+          <t>12-09 16:15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1255837964.html</t>
+          <t>/news,002840,1257784220.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
+          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-06 14:19</t>
+          <t>12-09 14:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1255803834.html</t>
+          <t>/news,002840,1257714940.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1257558049.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1257554651.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1257406143.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1256765993.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>2572</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>3163</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2178</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6116</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>6139</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>1173</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,93 +2589,93 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,93 +2707,93 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2211.39万元，融资余额3224.01万元（10-25）</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 08:55</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1238979247.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【图解季报】华统股份：2022年前三季度归母净利润同比翻9倍，约为4537万元</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 05:38</t>
+          <t>10-28 00:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1238956323.html</t>
+          <t>/news,002840,1240021821.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华统股份：前三季度归母净利润同比增长909.18%</t>
+          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 22:38</t>
+          <t>10-27 21:56</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1238919659.html</t>
+          <t>/news,002840,1239991983.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份股东户数下降2.30%，户均持股86.47万元</t>
+          <t>华统股份：接受国信证券等机构调研</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 21:46</t>
+          <t>10-27 20:22</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1238901436.html</t>
+          <t>/news,002840,1239961521.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份：第三季净利1.04亿元 同比扭亏为盈</t>
+          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 21:02</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1238891213.html</t>
+          <t>/news,002840,1239506802.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份：三季度净利1.04亿元 同比增200.95%</t>
+          <t>华统股份(002840)龙虎榜数据(10-26)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1238885618.html</t>
+          <t>/news,002840,1239354490.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份：2022年前三季度净利润约4537万元</t>
+          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 17:09</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1238888203.html</t>
+          <t>/news,002840,1239354182.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002840.xlsx
+++ b/news_ann/news/tmp/002840.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2982.77万元（12-16）</t>
+          <t>华统股份：融资净偿还1332.64万元，融资余额1.45亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-19 08:52</t>
+          <t>12-23 08:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002840,1261207426.html</t>
+          <t>/news,002840,1263199022.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华统股份：拟向董事、副总经理等86人授予840万股限制性股票 授予价格8.53元/股</t>
+          <t>华统股份：融资净偿还3631.7万元，融资余额1.58亿元（12-21）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-18 17:22</t>
+          <t>12-22 08:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002840,1261106420.html</t>
+          <t>/news,002840,1262678822.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华统股份：拟向3家子公司合计增资5亿元</t>
+          <t>华统股份：连续5日融资净买入累计3837.73万元（12-20）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-18 17:22</t>
+          <t>12-21 09:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002840,1261105589.html</t>
+          <t>/news,002840,1262206256.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>注意！华统股份将于2023年1月3日召开股东大会</t>
+          <t>国信证券给予华统股份买入评级 限制性股票激励落地 助力公司长期发展</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 16:23</t>
+          <t>12-20 10:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002840,1261096922.html</t>
+          <t>/news,002840,1261849319.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还2011.8万元，居食品饮料板块第七</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长207.55%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-18 15:08</t>
+          <t>12-20 10:39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002840,1261087158.html</t>
+          <t>/news,002840,1261838353.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入264.24万元，融资余额1.7亿元（12-15）</t>
+          <t>华统股份：连续4日融资净买入累计3046.92万元（12-19）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-16 08:59</t>
+          <t>12-20 08:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002840,1260487946.html</t>
+          <t>/news,002840,1261732568.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1128.44万元，融资余额1.68亿元（12-14）</t>
+          <t>华统股份：连续3日融资净买入累计2982.77万元（12-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-15 08:49</t>
+          <t>12-19 08:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002840,1259941840.html</t>
+          <t>/news,002840,1261207426.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还3843.16万元，融资余额1.56亿元（12-13）</t>
+          <t>华统股份：拟向董事、副总经理等86人授予840万股限制性股票 授予价格8.53元/股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-14 09:08</t>
+          <t>12-18 17:22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002840,1259358830.html</t>
+          <t>/news,002840,1261106420.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>1840</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华统股份涨停</t>
+          <t>华统股份：拟向3家子公司合计增资5亿元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-13 15:56</t>
+          <t>12-18 17:22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002840,1259099521.html</t>
+          <t>/news,002840,1261105589.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计1791.67万元（12-12）</t>
+          <t>注意！华统股份将于2023年1月3日召开股东大会</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-13 08:49</t>
+          <t>12-18 16:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002840,1258768843.html</t>
+          <t>/news,002840,1261096922.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
+          <t>华统股份本周融资净偿还2011.8万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-12 08:55</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002840,1258214367.html</t>
+          <t>/news,002840,1261087158.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元</t>
+          <t>华统股份：融资净买入264.24万元，融资余额1.7亿元（12-15）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-11 20:16</t>
+          <t>12-16 08:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002840,1258145946.html</t>
+          <t>/news,002840,1260487946.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
+          <t>华统股份：融资净买入1128.44万元，融资余额1.68亿元（12-14）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-11 18:16</t>
+          <t>12-15 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002840,1258118459.html</t>
+          <t>/news,002840,1259941840.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
+          <t>华统股份：融资净偿还3843.16万元，融资余额1.56亿元（12-13）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-11 17:16</t>
+          <t>12-14 09:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002840,1258110205.html</t>
+          <t>/news,002840,1259358830.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
+          <t>华统股份涨停</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-13 15:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002840,1258090641.html</t>
+          <t>/news,002840,1259099521.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
+          <t>华统股份：连续3日融资净买入累计1791.67万元（12-12）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-09 16:15</t>
+          <t>12-13 08:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002840,1257784220.html</t>
+          <t>/news,002840,1258768843.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
+          <t>华统股份：融资净买入837.69万元，融资余额1.9亿元（12-09）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-09 14:27</t>
+          <t>12-12 08:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002840,1257714940.html</t>
+          <t>/news,002840,1258214367.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
+          <t>华统股份：11月生猪销售收入2.06亿元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-11 20:16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002840,1257558049.html</t>
+          <t>/news,002840,1258145946.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
+          <t>华统股份：11月生猪销售收入2.06亿元 环比变动-27.33%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-09 10:42</t>
+          <t>12-11 18:16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002840,1257554651.html</t>
+          <t>/news,002840,1258118459.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
+          <t>华统股份：11月公司生猪销售收入2.06亿元 同比增972.41%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-09 09:05</t>
+          <t>12-11 17:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002840,1257406143.html</t>
+          <t>/news,002840,1258110205.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
+          <t>融资融券周汇总：华统股份本周融资净买入65.5万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002840,1256765993.html</t>
+          <t>/news,002840,1258090641.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
+          <t>华统股份：主营业务涵盖畜禽养殖、屠宰及肉类加工全产业链</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-09 16:15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002840,1256100057.html</t>
+          <t>/news,002840,1257784220.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
+          <t>华统股份：公司主营业务仍为畜禽养殖、屠宰及肉类加工</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-06 14:51</t>
+          <t>12-09 14:27</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002840,1255837964.html</t>
+          <t>/news,002840,1257714940.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
+          <t>华统股份：一般接近年末为消费旺季，屠宰量和利润率较平常都会有所上升</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-06 14:19</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002840,1255803834.html</t>
+          <t>/news,002840,1257558049.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
+          <t>华统股份：公司暂无重点布局期货套保业务的考虑</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-09 10:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002840,1255457235.html</t>
+          <t>/news,002840,1257554651.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
+          <t>华统股份：融资净买入515.3万元，融资余额1.82亿元（12-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-09 09:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002840,1254802322.html</t>
+          <t>/news,002840,1257406143.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
+          <t>华统股份：融资净偿还139.91万元，融资余额1.77亿元（12-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002840,1254650839.html</t>
+          <t>/news,002840,1256765993.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3163</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华统股份控股子公司环境违法被罚38.4万元</t>
+          <t>华统股份：融资净买入403.1万元，融资余额1.78亿元（12-06）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-03 14:50</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002840,1254545863.html</t>
+          <t>/news,002840,1256100057.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
+          <t>华统股份：腌腊季逐步开启 屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-06 14:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002840,1253919862.html</t>
+          <t>/news,002840,1255837964.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
+          <t>华统股份：受年底低温影响 腌腊季逐步开启 公司屠宰业务开工率有所上升</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 08:43</t>
+          <t>12-06 14:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002840,1253309134.html</t>
+          <t>/news,002840,1255803834.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
+          <t>华统股份：连续3日融资净偿还累计1910.37万元（12-05）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 08:51</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002840,1252786727.html</t>
+          <t>/news,002840,1255457235.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
+          <t>华统股份：融资净偿还625.01万元，融资余额1.81亿元（12-02）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002840,1252221607.html</t>
+          <t>/news,002840,1254802322.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,71 +1491,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
+          <t>华统股份本周融资净买入1323.21万元，居食品饮料板块第十五</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-28 08:44</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002840,1251733791.html</t>
+          <t>/news,002840,1254650839.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
+          <t>华统股份控股子公司环境违法被罚38.4万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>12-03 14:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002840,1251590961.html</t>
+          <t>/news,002840,1254545863.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
+          <t>华统股份：融资净偿还572.36万元，融资余额1.88亿元（12-01）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 08:50</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002840,1250951201.html</t>
+          <t>/news,002840,1253919862.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2230</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
+          <t>华统股份：连续7日融资净买入累计4430.6万元（11-30）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 10:13</t>
+          <t>12-01 08:43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002840,1250520792.html</t>
+          <t>/news,002840,1253309134.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
+          <t>华统股份：连续6日融资净买入累计3255.63万元（11-29）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 09:00</t>
+          <t>11-30 08:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002840,1250431551.html</t>
+          <t>/news,002840,1252786727.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
+          <t>华统股份：连续5日融资净买入累计3137.37万元（11-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 18:00</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002840,1250254601.html</t>
+          <t>/news,002840,1252221607.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
+          <t>华统股份：连续4日融资净买入累计2535.03万元（11-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 09:04</t>
+          <t>11-28 08:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002840,1249888126.html</t>
+          <t>/news,002840,1251733791.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
+          <t>华统股份本周融资净买入1754.05万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 08:43</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002840,1249882747.html</t>
+          <t>/news,002840,1251590961.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
+          <t>华统股份：连续3日融资净买入累计2321.14万元（11-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 08:50</t>
+          <t>11-25 08:50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002840,1249356319.html</t>
+          <t>/news,002840,1250951201.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>2244</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
+          <t>公司新能源项目有无推进？光伏产业进展如何？华统股份回应</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 08:46</t>
+          <t>11-24 10:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002840,1248871532.html</t>
+          <t>/news,002840,1250520792.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
+          <t>华统股份：融资净买入85.98万元，融资余额1.71亿元（11-23）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-24 09:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002840,1248769396.html</t>
+          <t>/news,002840,1250431551.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
+          <t>大宗交易：华统股份成交1294.3万元，折价8.51%（11-23）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 08:55</t>
+          <t>11-23 18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002840,1248164028.html</t>
+          <t>/news,002840,1250254601.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6139</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>养鸡概念股震荡走强 华统股份涨停</t>
+          <t>华统股份：原材料价格波动对公司产品价格影响可控</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 11:02</t>
+          <t>11-23 09:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002840,1247827341.html</t>
+          <t>/news,002840,1249888126.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
+          <t>华统股份：融资净买入2074万元，融资余额1.7亿元（11-22）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 08:50</t>
+          <t>11-23 08:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002840,1247676877.html</t>
+          <t>/news,002840,1249882747.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
+          <t>华统股份：融资净偿还567.09万元，融资余额1.49亿元（11-21）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 13:48</t>
+          <t>11-22 08:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002840,1247429546.html</t>
+          <t>/news,002840,1249356319.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
+          <t>华统股份：融资净买入1845.43万元，融资余额1.55亿元（11-18）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 13:25</t>
+          <t>11-21 08:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002840,1247408765.html</t>
+          <t>/news,002840,1248871532.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
+          <t>华统股份本周融资净偿还792.96万元，居食品饮料板块第十一</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 08:56</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002840,1247185410.html</t>
+          <t>/news,002840,1248769396.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
+          <t>华统股份：融资净偿还846.41万元，融资余额1.36亿元（11-17）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 09:33</t>
+          <t>11-18 08:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002840,1246736011.html</t>
+          <t>/news,002840,1248164028.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
+          <t>养鸡概念股震荡走强 华统股份涨停</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-17 11:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002840,1246697980.html</t>
+          <t>/news,002840,1247827341.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>华统股份：融资净买入162.34万元，融资余额1.45亿元（11-16）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-14 17:45</t>
+          <t>11-17 08:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002840,1246569428.html</t>
+          <t>/news,002840,1247676877.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
+          <t>国信证券给予华统股份买入评级，10月销售简报点评：出栏维持高增，产能逐月兑现</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-14 17:22</t>
+          <t>11-16 13:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002840,1246564001.html</t>
+          <t>/news,002840,1247429546.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
+          <t>国信证券维持华统股份买入评级 预计2022年净利润同比增长343.68%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-14 17:19</t>
+          <t>11-16 13:25</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002840,1246562899.html</t>
+          <t>/news,002840,1247408765.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
+          <t>华统股份：融资净买入160.79万元，融资余额1.43亿元（11-15）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 08:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002840,1246198754.html</t>
+          <t>/news,002840,1247185410.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
+          <t>华统股份：公司目前在浙江省及安徽省均有在建生猪产能</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-13 15:17</t>
+          <t>11-15 09:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002840,1246101868.html</t>
+          <t>/news,002840,1246736011.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
+          <t>华统股份：融资净偿还269.67万元，融资余额1.41亿元（11-14）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002840,1245423678.html</t>
+          <t>/news,002840,1246697980.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-10 08:44</t>
+          <t>11-14 17:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002840,1244898806.html</t>
+          <t>/news,002840,1246569428.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
+          <t>华统股份：去年猪场陆续投产、今年产能释放 10月生猪销售收入同比增长2200.55%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-09 08:51</t>
+          <t>11-14 17:22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002840,1244436836.html</t>
+          <t>/news,002840,1246564001.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
+          <t>华统股份：10月生猪销售收入2.83亿元 环比降6.84%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-08 08:54</t>
+          <t>11-14 17:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002840,1243984038.html</t>
+          <t>/news,002840,1246562899.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
+          <t>华统股份：融资净买入290.44万元，融资余额1.44亿元（11-11）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002840,1243512304.html</t>
+          <t>/news,002840,1246198754.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
+          <t>华统股份本周融资净买入1621.49万元，居食品饮料板块第六</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-06 15:19</t>
+          <t>11-13 15:17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002840,1243412906.html</t>
+          <t>/news,002840,1246101868.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
+          <t>华统股份：融资净买入509.66万元，融资余额1.41亿元（11-10）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 08:58</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002840,1242827811.html</t>
+          <t>/news,002840,1245423678.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
+          <t>华统股份：融资净偿还126.97万元，融资余额1.36亿元（11-09）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-10 08:44</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002840,1242334174.html</t>
+          <t>/news,002840,1244898806.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
+          <t>华统股份：连续6日融资净买入累计5370.91万元（11-08）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-09 08:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002840,1241808939.html</t>
+          <t>/news,002840,1244436836.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
+          <t>华统股份：连续5日融资净买入累计4531.89万元（11-07）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 08:52</t>
+          <t>11-08 08:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002840,1241304942.html</t>
+          <t>/news,002840,1243984038.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
+          <t>华统股份：连续4日融资净买入累计4132.11万元（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002840,1240796063.html</t>
+          <t>/news,002840,1243512304.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
+          <t>华统股份本周融资净买入2607.48万元，居食品饮料板块第七</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 15:10</t>
+          <t>11-06 15:19</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002840,1240713758.html</t>
+          <t>/news,002840,1243412906.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
+          <t>华统股份：连续3日融资净买入累计2709.94万元（11-03）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 13:30</t>
+          <t>11-04 08:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002840,1240704293.html</t>
+          <t>/news,002840,1242827811.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
+          <t>华统股份：融资净买入652.3万元，融资余额9530.72万元（11-02）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 12:30</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002840,1240703043.html</t>
+          <t>/news,002840,1242334174.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
+          <t>华统股份：融资净买入514.65万元，融资余额8878.42万元（11-01）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 12:19</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002840,1240700496.html</t>
+          <t>/news,002840,1241808939.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
+          <t>华统股份：融资净偿还102.46万元，融资余额8363.77万元（10-31）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 09:40</t>
+          <t>11-01 08:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002840,1240690540.html</t>
+          <t>/news,002840,1241304942.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
+          <t>华统股份：融资净买入2003.3万元，融资余额8466.23万元（10-28）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 11:13</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002840,1240239066.html</t>
+          <t>/news,002840,1240796063.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,71 +2803,71 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
+          <t>华统股份本周融资净买入5450.31万元，居食品饮料板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-28 09:07</t>
+          <t>10-30 15:10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002840,1240060870.html</t>
+          <t>/news,002840,1240713758.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增强</t>
+          <t>长城证券维持华统股份买入评级 预计2022年净利润同比增长265.47%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 00:43</t>
+          <t>10-30 13:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002840,1240021821.html</t>
+          <t>/news,002840,1240704293.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>832</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【调研快报】华统股份接待国信证券等多家机构调研</t>
+          <t>民生证券给予华统股份推荐评级 2022三季报点评：母猪淘汰损失影响当期利润 看好公司长期发展</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-27 21:56</t>
+          <t>10-30 12:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002840,1239991983.html</t>
+          <t>/news,002840,1240703043.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华统股份：接受国信证券等机构调研</t>
+          <t>民生证券维持华统股份推荐评级 预计2022年净利润同比增长253.28%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-27 20:22</t>
+          <t>10-30 12:19</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002840,1239961521.html</t>
+          <t>/news,002840,1240700496.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华统股份：融资净买入2003.05万元，融资余额5227.06万元（10-26）</t>
+          <t>方正证券维持华统股份推荐评级 预计2022年净利润同比增长251.72%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>华统股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-30 09:40</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002840,1239506802.html</t>
+          <t>/news,002840,1240690540.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华统股份(002840)龙虎榜数据(10-26)</t>
+          <t>华统股份前三季度净利润增长909% 生猪板块盈利能力增加</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-28 11:13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002840,1239354490.html</t>
+          <t>/news,002840,1240239066.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华统股份9日连跌 机构资金净卖出3亿元</t>
+          <t>华统股份：融资净买入1235.87万元，融资余额6462.93万元（10-27）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>华统股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-26 17:09</t>
+          <t>10-28 09:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002840,1239354182.html</t>
+          <t>/news,002840,1240060870.html</t>
         </is>
       </c>
     </row>
